--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch50/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch50/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>42934.241</v>
       </c>
       <c r="F2">
-        <v>5946.759</v>
+        <v>4916.443</v>
       </c>
       <c r="G2">
+        <v>1030.316</v>
+      </c>
+      <c r="H2">
         <v>48881</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>841.7060000000001</v>
@@ -926,21 +935,24 @@
         <v>4918.294</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5760</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>6827.763999999999</v>
@@ -949,21 +961,24 @@
         <v>23073.236</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>29901</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>11864.992</v>
@@ -972,21 +987,24 @@
         <v>23030.008</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>34895</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>11418.396</v>
@@ -995,6 +1013,9 @@
         <v>23081.604</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>34500</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>490810.219</v>
       </c>
       <c r="F2">
-        <v>793057.781</v>
+        <v>776539.115</v>
       </c>
       <c r="G2">
+        <v>16518.666</v>
+      </c>
+      <c r="H2">
         <v>1283868</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>601022.79</v>
       </c>
       <c r="F3">
-        <v>983385.21</v>
+        <v>917666.7</v>
       </c>
       <c r="G3">
+        <v>65718.50999999999</v>
+      </c>
+      <c r="H3">
         <v>1584408</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
-        <v>188908.017</v>
+        <v>188908.0170000001</v>
       </c>
       <c r="F4">
-        <v>596104.983</v>
+        <v>589306.2</v>
       </c>
       <c r="G4">
+        <v>6798.783</v>
+      </c>
+      <c r="H4">
         <v>785013</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>519623.103</v>
+        <v>519623.1029999999</v>
       </c>
       <c r="F5">
-        <v>793055.897</v>
+        <v>776549.094</v>
       </c>
       <c r="G5">
+        <v>16506.803</v>
+      </c>
+      <c r="H5">
         <v>1312679</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>1131342.26</v>
       </c>
       <c r="F6">
-        <v>1885169.74</v>
+        <v>1753962.27</v>
       </c>
       <c r="G6">
+        <v>131207.47</v>
+      </c>
+      <c r="H6">
         <v>3016512</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>1127378.9</v>
       </c>
       <c r="F7">
-        <v>1885205.1</v>
+        <v>1753993.58</v>
       </c>
       <c r="G7">
+        <v>131211.52</v>
+      </c>
+      <c r="H7">
         <v>3012584</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
-        <v>976656.8500000001</v>
+        <v>976656.85</v>
       </c>
       <c r="F8">
-        <v>1604325.15</v>
+        <v>1473108.75</v>
       </c>
       <c r="G8">
+        <v>131216.4</v>
+      </c>
+      <c r="H8">
         <v>2580982</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>235606.2170000002</v>
+        <v>235606.2170000001</v>
       </c>
       <c r="F9">
-        <v>1271810.783</v>
+        <v>1255289.9</v>
       </c>
       <c r="G9">
+        <v>16520.883</v>
+      </c>
+      <c r="H9">
         <v>1507417</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>367065.054</v>
       </c>
       <c r="F2">
-        <v>598711.946</v>
+        <v>533032.596</v>
       </c>
       <c r="G2">
+        <v>65679.35000000001</v>
+      </c>
+      <c r="H2">
         <v>965777</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>753985.0009999999</v>
       </c>
       <c r="F3">
-        <v>703703.9990000001</v>
+        <v>572497.6090000001</v>
       </c>
       <c r="G3">
+        <v>131206.39</v>
+      </c>
+      <c r="H3">
         <v>1457689</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>340158.5535</v>
       </c>
       <c r="F4">
-        <v>105273.4465</v>
+        <v>52678.00900000001</v>
       </c>
       <c r="G4">
+        <v>52595.4375</v>
+      </c>
+      <c r="H4">
         <v>445432</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1193.45</v>
@@ -1337,21 +1397,24 @@
         <v>249.55</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1443</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1243.887</v>
@@ -1360,136 +1423,154 @@
         <v>250.113</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1494</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>364967.767</v>
       </c>
       <c r="F7">
-        <v>598703.233</v>
+        <v>533010.113</v>
       </c>
       <c r="G7">
+        <v>65693.12</v>
+      </c>
+      <c r="H7">
         <v>963671</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>367812.3959999999</v>
       </c>
       <c r="F8">
-        <v>598737.6040000001</v>
+        <v>533017.324</v>
       </c>
       <c r="G8">
+        <v>65720.28</v>
+      </c>
+      <c r="H8">
         <v>966550</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>364544.563</v>
       </c>
       <c r="F9">
-        <v>598677.437</v>
+        <v>533010.8470000001</v>
       </c>
       <c r="G9">
+        <v>65666.59</v>
+      </c>
+      <c r="H9">
         <v>963222</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>731826.1</v>
       </c>
       <c r="F10">
-        <v>702603.9</v>
+        <v>571386.025</v>
       </c>
       <c r="G10">
+        <v>131217.875</v>
+      </c>
+      <c r="H10">
         <v>1434430</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>345724.409</v>
       </c>
       <c r="F11">
-        <v>105262.591</v>
+        <v>52698.501</v>
       </c>
       <c r="G11">
+        <v>52564.09</v>
+      </c>
+      <c r="H11">
         <v>450987</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1255.538</v>
@@ -1498,21 +1579,24 @@
         <v>263.462</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1519</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1251.412</v>
@@ -1521,6 +1605,9 @@
         <v>235.588</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1487</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>727010.5200000003</v>
       </c>
       <c r="F2">
-        <v>1197620.48</v>
+        <v>1066270.04</v>
       </c>
       <c r="G2">
+        <v>131350.44</v>
+      </c>
+      <c r="H2">
         <v>1924631</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>1466865.677</v>
       </c>
       <c r="F3">
-        <v>1405959.323</v>
+        <v>1143543.123</v>
       </c>
       <c r="G3">
+        <v>262416.2</v>
+      </c>
+      <c r="H3">
         <v>2872825</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>581086.299</v>
       </c>
       <c r="F4">
-        <v>210928.701</v>
+        <v>105588.278</v>
       </c>
       <c r="G4">
+        <v>105340.423</v>
+      </c>
+      <c r="H4">
         <v>792015</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3312.275</v>
@@ -1646,21 +1745,24 @@
         <v>723.7249999999999</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4036</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3249.371</v>
@@ -1669,136 +1771,154 @@
         <v>706.629</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>3956</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>728375.2679999999</v>
       </c>
       <c r="F7">
-        <v>1197605.732</v>
+        <v>1066260.562</v>
       </c>
       <c r="G7">
+        <v>131345.17</v>
+      </c>
+      <c r="H7">
         <v>1925981</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>726608.2820000001</v>
+        <v>726608.2819999999</v>
       </c>
       <c r="F8">
-        <v>1197605.718</v>
+        <v>1066261.364</v>
       </c>
       <c r="G8">
+        <v>131344.354</v>
+      </c>
+      <c r="H8">
         <v>1924214</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>725165.0290000001</v>
       </c>
       <c r="F9">
-        <v>1197562.971</v>
+        <v>1066218.586</v>
       </c>
       <c r="G9">
+        <v>131344.385</v>
+      </c>
+      <c r="H9">
         <v>1922728</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>1444361.315</v>
       </c>
       <c r="F10">
-        <v>1407921.685</v>
+        <v>1145491.125</v>
       </c>
       <c r="G10">
+        <v>262430.56</v>
+      </c>
+      <c r="H10">
         <v>2852283</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>587524.187</v>
       </c>
       <c r="F11">
-        <v>210693.813</v>
+        <v>105568.616</v>
       </c>
       <c r="G11">
+        <v>105125.197</v>
+      </c>
+      <c r="H11">
         <v>798218</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3386.782</v>
@@ -1807,21 +1927,24 @@
         <v>723.2180000000001</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4110</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3529.452</v>
@@ -1830,6 +1953,9 @@
         <v>723.5479999999999</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>4253</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>798.624</v>
@@ -1886,21 +2015,24 @@
         <v>91.376</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>890</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>26531.001</v>
@@ -1909,21 +2041,24 @@
         <v>118.999</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>26650</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>104564.412</v>
@@ -1932,21 +2067,24 @@
         <v>101.588</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>104666</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>42253.581</v>
@@ -1955,21 +2093,24 @@
         <v>102.419</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>42356</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>487.098</v>
@@ -1978,21 +2119,24 @@
         <v>94.902</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>705.676</v>
@@ -2001,21 +2145,24 @@
         <v>105.324</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>1669.211</v>
@@ -2024,21 +2171,24 @@
         <v>103.789</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1773</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>1640.18</v>
@@ -2047,21 +2197,24 @@
         <v>94.81999999999999</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1735</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>1677.938</v>
@@ -2070,21 +2223,24 @@
         <v>106.062</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1784</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>88290.102</v>
@@ -2093,21 +2249,24 @@
         <v>107.898</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>88398</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>38732.427</v>
@@ -2116,21 +2275,24 @@
         <v>98.57299999999999</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>38831</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>459.05</v>
@@ -2139,6 +2301,9 @@
         <v>96.95</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>556</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>128477.305</v>
@@ -2195,21 +2363,24 @@
         <v>34959.695</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>163437</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>253293.9</v>
@@ -2218,21 +2389,24 @@
         <v>69763.10000000001</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>323057</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>98668.11</v>
@@ -2241,21 +2415,24 @@
         <v>27988.89</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>126657</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>511.934</v>
@@ -2264,21 +2441,24 @@
         <v>114.066</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>473.927</v>
@@ -2287,21 +2467,24 @@
         <v>99.07299999999999</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>127265.445</v>
@@ -2310,21 +2493,24 @@
         <v>34942.555</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>162208</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>122001.152</v>
@@ -2333,21 +2519,24 @@
         <v>35003.848</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>157005</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>122813.3125</v>
@@ -2356,21 +2545,24 @@
         <v>34954.6875</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>157768</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>244509.695</v>
@@ -2379,21 +2571,24 @@
         <v>69821.30499999999</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>314331</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>98236.336</v>
@@ -2402,21 +2597,24 @@
         <v>27993.664</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>126230</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>449.507</v>
@@ -2425,21 +2623,24 @@
         <v>114.493</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>428.815</v>
@@ -2448,6 +2649,9 @@
         <v>100.185</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>529</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>12550</v>
@@ -2504,21 +2711,24 @@
         <v>639466</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>652016</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>779.1100000000006</v>
@@ -2527,21 +2737,24 @@
         <v>100043.89</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>100823</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>6828.25</v>
@@ -2550,21 +2763,24 @@
         <v>540281.75</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>547110</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>6759.25</v>
@@ -2573,21 +2789,24 @@
         <v>540200.75</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>546960</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>6597.699999999953</v>
@@ -2596,21 +2815,24 @@
         <v>540731.3</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>547329</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>17175</v>
@@ -2619,21 +2841,24 @@
         <v>639165</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>656340</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>693.804999999993</v>
@@ -2642,6 +2867,9 @@
         <v>100004.195</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>100698</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>73887.09899999999</v>
+        <v>74917.41500000001</v>
       </c>
       <c r="E2">
-        <v>80049.90100000001</v>
+        <v>79019.58499999999</v>
       </c>
       <c r="F2">
         <v>153937</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>612244.5209999999</v>
+        <v>614300.794</v>
       </c>
       <c r="E3">
-        <v>4307079.479000001</v>
+        <v>4305023.206000001</v>
       </c>
       <c r="F3">
         <v>4919324</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>10558968.139</v>
+        <v>11189572.116</v>
       </c>
       <c r="E4">
-        <v>12037023.861</v>
+        <v>11406419.884</v>
       </c>
       <c r="F4">
         <v>22595992</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>115546.232</v>
+        <v>116515.863</v>
       </c>
       <c r="E5">
-        <v>7702.768</v>
+        <v>6733.137000000001</v>
       </c>
       <c r="F5">
         <v>123249</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1510586.4015</v>
+        <v>1511511.1345</v>
       </c>
       <c r="E7">
-        <v>1363412.5985</v>
+        <v>1362487.8655</v>
       </c>
       <c r="F7">
         <v>2873999</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1494703.791</v>
+        <v>1757548.35</v>
       </c>
       <c r="E8">
-        <v>6832634.209000001</v>
+        <v>6569789.65</v>
       </c>
       <c r="F8">
         <v>8327338</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>570855.338</v>
+        <v>580636.363</v>
       </c>
       <c r="E9">
-        <v>970318.662</v>
+        <v>960537.637</v>
       </c>
       <c r="F9">
         <v>1541174</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>5271348.356000001</v>
+        <v>5787047.391000001</v>
       </c>
       <c r="E11">
-        <v>9812114.643999999</v>
+        <v>9296415.608999999</v>
       </c>
       <c r="F11">
         <v>15083463</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3641028.1305</v>
+        <v>4271371.262999999</v>
       </c>
       <c r="E12">
-        <v>4012672.8695</v>
+        <v>3382329.737</v>
       </c>
       <c r="F12">
         <v>7653701</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>7000474.456999999</v>
+        <v>8261171.185999999</v>
       </c>
       <c r="E13">
-        <v>8028775.543000001</v>
+        <v>6768078.814000001</v>
       </c>
       <c r="F13">
         <v>15029250</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>106305.091</v>
       </c>
       <c r="F2">
-        <v>109267.909</v>
+        <v>108342.23</v>
       </c>
       <c r="G2">
+        <v>925.679</v>
+      </c>
+      <c r="H2">
         <v>215573</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>19996.223</v>
@@ -3051,21 +3285,24 @@
         <v>18152.777</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>38149</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>677.0050000000001</v>
@@ -3074,67 +3311,76 @@
         <v>8158.995</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>8836</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2296.549</v>
       </c>
       <c r="F5">
-        <v>3616.451</v>
+        <v>3514.426</v>
       </c>
       <c r="G5">
+        <v>102.025</v>
+      </c>
+      <c r="H5">
         <v>5913</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>10122.064</v>
       </c>
       <c r="F6">
-        <v>58222.936</v>
+        <v>57194.367</v>
       </c>
       <c r="G6">
+        <v>1028.569</v>
+      </c>
+      <c r="H6">
         <v>68345</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>102350.95</v>
@@ -3143,21 +3389,24 @@
         <v>108361.05</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>210712</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>117055.8999999999</v>
@@ -3166,21 +3415,24 @@
         <v>1323791.1</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1440847</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>117387.25</v>
@@ -3189,21 +3441,24 @@
         <v>1323794.75</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1441182</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>116747.75</v>
@@ -3212,21 +3467,24 @@
         <v>1323782.25</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1440530</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>18334.344</v>
@@ -3235,21 +3493,24 @@
         <v>18152.656</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>36487</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>528.652</v>
@@ -3258,21 +3519,24 @@
         <v>8162.348</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>8691</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>442.7429999999999</v>
@@ -3281,6 +3545,9 @@
         <v>3616.257</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>4059</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>99627.266</v>
@@ -3337,21 +3607,24 @@
         <v>83400.734</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>183028</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>107224.195</v>
@@ -3360,21 +3633,24 @@
         <v>88942.80499999999</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>196167</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>98222.92</v>
@@ -3383,21 +3659,24 @@
         <v>88946.08</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>187169</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>66576.22</v>
@@ -3406,21 +3685,24 @@
         <v>76840.78</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>143417</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>496.308</v>
@@ -3429,21 +3711,24 @@
         <v>106.692</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>603</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>769.702</v>
@@ -3452,21 +3737,24 @@
         <v>105.298</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>467.655</v>
@@ -3475,21 +3763,24 @@
         <v>102.345</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>650.7860000000001</v>
@@ -3498,21 +3789,24 @@
         <v>102.214</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>482.021</v>
@@ -3521,21 +3815,24 @@
         <v>101.979</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>492.311</v>
@@ -3544,44 +3841,50 @@
         <v>108.689</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>494444.29</v>
       </c>
       <c r="F12">
-        <v>324848.71</v>
+        <v>259150.5</v>
       </c>
       <c r="G12">
+        <v>65698.21000000001</v>
+      </c>
+      <c r="H12">
         <v>819293</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>780.034</v>
@@ -3590,21 +3893,24 @@
         <v>113.966</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>894</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>125169.05</v>
@@ -3613,21 +3919,24 @@
         <v>257962.95</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>383132</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>132494.48</v>
@@ -3636,21 +3945,24 @@
         <v>257954.52</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>390449</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>122971.66</v>
@@ -3659,21 +3971,24 @@
         <v>257958.34</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>380930</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>574.999</v>
@@ -3682,21 +3997,24 @@
         <v>114.001</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>689</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>641.7</v>
@@ -3705,21 +4023,24 @@
         <v>118.3</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>760</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>474.799</v>
@@ -3728,21 +4049,24 @@
         <v>105.201</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>659.191</v>
@@ -3751,21 +4075,24 @@
         <v>111.809</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>771</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>471.113</v>
@@ -3774,21 +4101,24 @@
         <v>105.887</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>577</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>535.117</v>
@@ -3797,44 +4127,50 @@
         <v>103.883</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>639</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>973333.3149999999</v>
       </c>
       <c r="F23">
-        <v>664186.6850000001</v>
+        <v>532973.0600000001</v>
       </c>
       <c r="G23">
+        <v>131213.625</v>
+      </c>
+      <c r="H23">
         <v>1637520</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>9158.597</v>
@@ -3843,21 +4179,24 @@
         <v>121.403</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>9280</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>246786.4</v>
@@ -3866,21 +4205,24 @@
         <v>532954.6</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>779741</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>247470.5600000001</v>
@@ -3889,21 +4231,24 @@
         <v>532971.4399999999</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>780442</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>254004.2</v>
@@ -3912,21 +4257,24 @@
         <v>532945.8</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>786950</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>651.254</v>
@@ -3935,21 +4283,24 @@
         <v>110.746</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>675.835</v>
@@ -3958,21 +4309,24 @@
         <v>108.165</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>514.546</v>
@@ -3981,21 +4335,24 @@
         <v>119.454</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>615.102</v>
@@ -4004,21 +4361,24 @@
         <v>109.898</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>725</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>496.451</v>
@@ -4027,21 +4387,24 @@
         <v>109.549</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>540.029</v>
@@ -4050,44 +4413,50 @@
         <v>114.971</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>655</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>380996.384</v>
       </c>
       <c r="F34">
-        <v>141593.616</v>
+        <v>88984.03</v>
       </c>
       <c r="G34">
+        <v>52609.586</v>
+      </c>
+      <c r="H34">
         <v>522590</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>726.037</v>
@@ -4096,21 +4465,24 @@
         <v>121.963</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>848</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>98152.22</v>
@@ -4119,21 +4491,24 @@
         <v>88933.78</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>187086</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>99322.59</v>
@@ -4142,21 +4517,24 @@
         <v>88949.41</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>188272</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>105674.44</v>
@@ -4165,21 +4543,24 @@
         <v>88943.56</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>194618</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>26611.294</v>
@@ -4188,21 +4569,24 @@
         <v>204.706</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>26816</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>484.762</v>
@@ -4211,21 +4595,24 @@
         <v>105.238</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>705.297</v>
@@ -4234,21 +4621,24 @@
         <v>104.703</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>810</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>444.137</v>
@@ -4257,21 +4647,24 @@
         <v>104.863</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>549</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>629.412</v>
@@ -4280,21 +4673,24 @@
         <v>104.588</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>734</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>491.765</v>
@@ -4303,21 +4699,24 @@
         <v>104.235</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>479.434</v>
@@ -4326,21 +4725,24 @@
         <v>104.566</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>584</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>541.891</v>
@@ -4349,21 +4751,24 @@
         <v>164.109</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>685.125</v>
@@ -4372,21 +4777,24 @@
         <v>106.875</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>792</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>537.8679999999999</v>
@@ -4395,21 +4803,24 @@
         <v>170.132</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>708</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>579.2619999999999</v>
@@ -4418,21 +4829,24 @@
         <v>166.738</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>746</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>530.742</v>
@@ -4441,21 +4855,24 @@
         <v>177.258</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>708</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>626.417</v>
@@ -4464,21 +4881,24 @@
         <v>157.583</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>784</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>531.03</v>
@@ -4487,21 +4907,24 @@
         <v>104.97</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>632.446</v>
@@ -4510,21 +4933,24 @@
         <v>104.554</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>737</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>518.646</v>
@@ -4533,21 +4959,24 @@
         <v>108.354</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>627</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>623.84</v>
@@ -4556,21 +4985,24 @@
         <v>106.16</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>730</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>530.268</v>
@@ -4579,21 +5011,24 @@
         <v>105.732</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>636</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>479.466</v>
@@ -4602,21 +5037,24 @@
         <v>119.534</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>514.807</v>
@@ -4625,21 +5063,24 @@
         <v>151.193</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>666</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>686.408</v>
@@ -4648,21 +5089,24 @@
         <v>104.592</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>791</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>513.521</v>
@@ -4671,21 +5115,24 @@
         <v>148.479</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>662</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>542.369</v>
@@ -4694,21 +5141,24 @@
         <v>145.631</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>688</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>505.113</v>
@@ -4717,44 +5167,50 @@
         <v>146.887</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>4021.622</v>
       </c>
       <c r="F63">
-        <v>294.378</v>
+        <v>99.861</v>
       </c>
       <c r="G63">
+        <v>194.517</v>
+      </c>
+      <c r="H63">
         <v>4316</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>531.787</v>
@@ -4763,21 +5219,24 @@
         <v>108.213</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>640</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>100121.97</v>
@@ -4786,21 +5245,24 @@
         <v>83394.03</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>183516</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>98263.52</v>
@@ -4809,21 +5271,24 @@
         <v>88965.48</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>187229</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>103655.945</v>
@@ -4832,21 +5297,24 @@
         <v>88924.05499999999</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>192580</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>66084.13</v>
@@ -4855,21 +5323,24 @@
         <v>76772.87</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>142857</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>614.492</v>
@@ -4878,21 +5349,24 @@
         <v>116.508</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>731</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>586.371</v>
@@ -4901,21 +5375,24 @@
         <v>105.629</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>692</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>520.575</v>
@@ -4924,21 +5401,24 @@
         <v>111.425</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>680.569</v>
@@ -4947,21 +5427,24 @@
         <v>100.431</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>781</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>453.525</v>
@@ -4970,21 +5453,24 @@
         <v>104.475</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>558</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>448.595</v>
@@ -4993,44 +5479,50 @@
         <v>102.405</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>486783.454</v>
       </c>
       <c r="F75">
-        <v>324815.546</v>
+        <v>259142.78</v>
       </c>
       <c r="G75">
+        <v>65672.766</v>
+      </c>
+      <c r="H75">
         <v>811599</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>970.329</v>
@@ -5039,21 +5531,24 @@
         <v>114.671</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>1085</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>123622.83</v>
@@ -5062,21 +5557,24 @@
         <v>257954.17</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>381577</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>129778.84</v>
@@ -5085,21 +5583,24 @@
         <v>257952.16</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>387731</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>122662.8</v>
@@ -5108,21 +5609,24 @@
         <v>257950.2</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>380613</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>127779.6</v>
@@ -5131,21 +5635,24 @@
         <v>83393.39999999999</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>211173</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>98520.016</v>
@@ -5154,21 +5661,24 @@
         <v>88940.984</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>187461</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>98789.57000000001</v>
@@ -5177,21 +5687,24 @@
         <v>88938.42999999999</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>187728</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>158714.53</v>
@@ -5200,21 +5713,24 @@
         <v>275287.47</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>434002</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>569.869</v>
@@ -5223,21 +5739,24 @@
         <v>122.131</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>692</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>637.1949999999999</v>
@@ -5246,21 +5765,24 @@
         <v>112.805</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>750</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>500.885</v>
@@ -5269,21 +5791,24 @@
         <v>119.115</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>620</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>596.026</v>
@@ -5292,21 +5817,24 @@
         <v>111.974</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>511.797</v>
@@ -5315,21 +5843,24 @@
         <v>116.203</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>628</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>462.809</v>
@@ -5338,44 +5869,50 @@
         <v>126.191</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>486164.95</v>
       </c>
       <c r="F90">
-        <v>324864.05</v>
+        <v>259183.56</v>
       </c>
       <c r="G90">
+        <v>65680.49000000001</v>
+      </c>
+      <c r="H90">
         <v>811029</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>768.879</v>
@@ -5384,21 +5921,24 @@
         <v>113.121</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>882</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>123745.8</v>
@@ -5407,21 +5947,24 @@
         <v>257965.2</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>381711</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>122809.9</v>
@@ -5430,21 +5973,24 @@
         <v>258026.1</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>380836</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>128987.92</v>
@@ -5453,21 +5999,24 @@
         <v>258001.08</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>386989</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>126020.57</v>
@@ -5476,21 +6025,24 @@
         <v>83307.42999999999</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>209328</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>99386.72</v>
@@ -5499,21 +6051,24 @@
         <v>89021.28</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>188408</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>98625.766</v>
@@ -5522,21 +6077,24 @@
         <v>88924.234</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>187550</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>157983.8</v>
@@ -5545,21 +6103,24 @@
         <v>275299.2</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>433283</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>547.9400000000001</v>
@@ -5568,21 +6129,24 @@
         <v>105.06</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>653</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>603.52</v>
@@ -5591,21 +6155,24 @@
         <v>104.48</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>708</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>471.745</v>
@@ -5614,21 +6181,24 @@
         <v>114.255</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>586</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>592.043</v>
@@ -5637,21 +6207,24 @@
         <v>104.957</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>697</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>527.659</v>
@@ -5660,21 +6233,24 @@
         <v>113.341</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>641</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>499.794</v>
@@ -5683,44 +6259,50 @@
         <v>116.206</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>616</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>484540.95</v>
       </c>
       <c r="F105">
-        <v>324822.05</v>
+        <v>259155.56</v>
       </c>
       <c r="G105">
+        <v>65666.49000000001</v>
+      </c>
+      <c r="H105">
         <v>809363</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>702.3679999999999</v>
@@ -5729,21 +6311,24 @@
         <v>117.632</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>820</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>123713.875</v>
@@ -5752,21 +6337,24 @@
         <v>257966.125</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>381680</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>123241.9</v>
@@ -5775,21 +6363,24 @@
         <v>257948.1</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>381190</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>129103.31</v>
@@ -5798,21 +6389,24 @@
         <v>257962.69</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>387066</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>124938.67</v>
@@ -5821,21 +6415,24 @@
         <v>83388.33</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>208327</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>98542.67999999999</v>
@@ -5844,21 +6441,24 @@
         <v>88937.32000000001</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>187480</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>98814.46000000001</v>
@@ -5867,21 +6467,24 @@
         <v>88945.53999999999</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>187760</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>158517.16</v>
@@ -5890,21 +6493,24 @@
         <v>275424.84</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>433942</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>520.6130000000001</v>
@@ -5913,21 +6519,24 @@
         <v>102.387</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>623</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>570.165</v>
@@ -5936,21 +6545,24 @@
         <v>100.835</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>671</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>460.602</v>
@@ -5959,21 +6571,24 @@
         <v>113.398</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>574</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>590.164</v>
@@ -5982,21 +6597,24 @@
         <v>113.836</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>704</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>540.546</v>
@@ -6005,21 +6623,24 @@
         <v>108.454</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>649</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>475.95</v>
@@ -6028,44 +6649,50 @@
         <v>116.05</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
         <v>961422.78</v>
       </c>
       <c r="F120">
-        <v>664219.22</v>
+        <v>532930.2</v>
       </c>
       <c r="G120">
+        <v>131289.02</v>
+      </c>
+      <c r="H120">
         <v>1625642</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>5812.477</v>
@@ -6074,21 +6701,24 @@
         <v>115.523</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>5928</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>246368.25</v>
@@ -6097,21 +6727,24 @@
         <v>532964.75</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>779333</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>245298.8</v>
@@ -6120,21 +6753,24 @@
         <v>532918.2</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>778217</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>249679.6</v>
@@ -6143,21 +6779,24 @@
         <v>532986.4</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>782666</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>607.817</v>
@@ -6166,21 +6805,24 @@
         <v>108.183</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>643.671</v>
@@ -6189,21 +6831,24 @@
         <v>108.329</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>752</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>501.315</v>
@@ -6212,21 +6857,24 @@
         <v>129.685</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>631</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>649.798</v>
@@ -6235,21 +6883,24 @@
         <v>102.202</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>752</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>493.609</v>
@@ -6258,21 +6909,24 @@
         <v>104.391</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>598</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>503.588</v>
@@ -6281,44 +6935,50 @@
         <v>108.412</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>612</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>381329.497</v>
       </c>
       <c r="F131">
-        <v>141575.503</v>
+        <v>88996.23</v>
       </c>
       <c r="G131">
+        <v>52579.273</v>
+      </c>
+      <c r="H131">
         <v>522905</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>707.885</v>
@@ -6327,21 +6987,24 @@
         <v>115.115</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>823</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>98958.81</v>
@@ -6350,21 +7013,24 @@
         <v>89022.19</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>187981</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>98594.25999999999</v>
@@ -6373,21 +7039,24 @@
         <v>88942.74000000001</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>187537</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>103038.125</v>
@@ -6396,21 +7065,24 @@
         <v>88936.875</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>191975</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>18248.339</v>
@@ -6419,21 +7091,24 @@
         <v>177.661</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>18426</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>526.114</v>
@@ -6442,21 +7117,24 @@
         <v>115.886</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>642</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>686.263</v>
@@ -6465,21 +7143,24 @@
         <v>113.737</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>800</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>469.188</v>
@@ -6488,21 +7169,24 @@
         <v>112.812</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>582</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>661.684</v>
@@ -6511,21 +7195,24 @@
         <v>114.316</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>776</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>490.656</v>
@@ -6534,21 +7221,24 @@
         <v>112.344</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>603</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>529.444</v>
@@ -6557,21 +7247,24 @@
         <v>115.556</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>645</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>567.933</v>
@@ -6580,21 +7273,24 @@
         <v>169.067</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>737</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>729.582</v>
@@ -6603,21 +7299,24 @@
         <v>106.418</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>836</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>507.988</v>
@@ -6626,21 +7325,24 @@
         <v>170.012</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>678</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>669.215</v>
@@ -6649,21 +7351,24 @@
         <v>177.785</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>847</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>551.577</v>
@@ -6672,21 +7377,24 @@
         <v>169.423</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>721</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>525.582</v>
@@ -6695,21 +7403,24 @@
         <v>164.418</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>690</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>460.68</v>
@@ -6718,21 +7429,24 @@
         <v>102.32</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>563</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>667.572</v>
@@ -6741,21 +7455,24 @@
         <v>106.428</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>774</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>488.009</v>
@@ -6764,21 +7481,24 @@
         <v>101.991</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>590</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>635.736</v>
@@ -6787,21 +7507,24 @@
         <v>105.264</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>741</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>475.832</v>
@@ -6810,21 +7533,24 @@
         <v>103.168</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>579</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>508.24</v>
@@ -6833,21 +7559,24 @@
         <v>103.76</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>508.189</v>
@@ -6856,21 +7585,24 @@
         <v>162.811</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>671</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>632.731</v>
@@ -6879,21 +7611,24 @@
         <v>110.269</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>743</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>542.4</v>
@@ -6902,21 +7637,24 @@
         <v>154.6</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>697</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>516.285</v>
@@ -6925,21 +7663,24 @@
         <v>150.715</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>667</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>505.322</v>
@@ -6948,21 +7689,24 @@
         <v>148.678</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>654</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>590.129</v>
@@ -6971,6 +7715,9 @@
         <v>121.871</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>712</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>24287.561</v>
       </c>
       <c r="F2">
-        <v>1515.439</v>
+        <v>545.808</v>
       </c>
       <c r="G2">
+        <v>969.631</v>
+      </c>
+      <c r="H2">
         <v>25803</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>2152.626</v>
@@ -7050,21 +7803,24 @@
         <v>541.374</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2694</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>32521.734</v>
@@ -7073,21 +7829,24 @@
         <v>1862.266</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>34384</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>28130.07</v>
@@ -7096,21 +7855,24 @@
         <v>1864.93</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>29995</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>28454.241</v>
@@ -7119,6 +7881,9 @@
         <v>1918.759</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>30373</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>16812.929</v>
@@ -7175,21 +7943,24 @@
         <v>1718.071</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>18531</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>643.461</v>
@@ -7198,21 +7969,24 @@
         <v>1691.539</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2335</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>22681.342</v>
@@ -7221,21 +7995,24 @@
         <v>11857.658</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>34539</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>22437.427</v>
@@ -7244,21 +8021,24 @@
         <v>11860.573</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>34298</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>22639.396</v>
@@ -7267,6 +8047,9 @@
         <v>11867.604</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>34507</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>98432.273</v>
@@ -7323,21 +8109,24 @@
         <v>44618.727</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>143051</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>98200.89999999999</v>
@@ -7346,44 +8135,50 @@
         <v>44634.1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>142835</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>54814.967</v>
       </c>
       <c r="F4">
-        <v>121512.033</v>
+        <v>120587.3</v>
       </c>
       <c r="G4">
+        <v>924.7329999999999</v>
+      </c>
+      <c r="H4">
         <v>176327</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>98783.6875</v>
@@ -7392,21 +8187,24 @@
         <v>44612.3125</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>143396</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>98872.008</v>
@@ -7415,21 +8213,24 @@
         <v>44612.992</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>143485</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>48409.95</v>
@@ -7438,21 +8239,24 @@
         <v>120557.05</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>168967</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>98409.84</v>
@@ -7461,21 +8265,24 @@
         <v>44625.16</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>143035</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>98328.008</v>
@@ -7484,21 +8291,24 @@
         <v>44620.992</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>142949</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>141458.48</v>
@@ -7507,21 +8317,24 @@
         <v>225013.52</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>366472</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>98366.527</v>
@@ -7530,21 +8343,24 @@
         <v>44660.473</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>143027</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>98814.48999999999</v>
@@ -7553,21 +8369,24 @@
         <v>44654.51</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>143469</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>141131.19</v>
@@ -7576,21 +8395,24 @@
         <v>225005.81</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>366137</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>98099.66399999999</v>
@@ -7599,21 +8421,24 @@
         <v>44619.336</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>142719</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>98225.027</v>
@@ -7622,21 +8447,24 @@
         <v>44669.973</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>142895</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>140239.39</v>
@@ -7645,6 +8473,9 @@
         <v>224995.61</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>365235</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>308604.426</v>
       </c>
       <c r="F2">
-        <v>1366474.574</v>
+        <v>1313912.75</v>
       </c>
       <c r="G2">
+        <v>52561.824</v>
+      </c>
+      <c r="H2">
         <v>1675079</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>291650.4200000002</v>
+        <v>291650.4200000001</v>
       </c>
       <c r="F3">
-        <v>1366457.58</v>
+        <v>1313903.9</v>
       </c>
       <c r="G3">
+        <v>52553.68</v>
+      </c>
+      <c r="H3">
         <v>1658108</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>297894.0599999998</v>
+        <v>297894.0599999999</v>
       </c>
       <c r="F4">
-        <v>1366701.94</v>
+        <v>1314100.1</v>
       </c>
       <c r="G4">
+        <v>52601.84</v>
+      </c>
+      <c r="H4">
         <v>1664596</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>299301.5450000002</v>
+        <v>299301.5450000001</v>
       </c>
       <c r="F5">
-        <v>1366472.455</v>
+        <v>1313902.4</v>
       </c>
       <c r="G5">
+        <v>52570.055</v>
+      </c>
+      <c r="H5">
         <v>1665774</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>297253.3400000001</v>
+        <v>297253.34</v>
       </c>
       <c r="F6">
-        <v>1366527.66</v>
+        <v>1313970.5</v>
       </c>
       <c r="G6">
+        <v>52557.16</v>
+      </c>
+      <c r="H6">
         <v>1663781</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>59248.322</v>
+        <v>59248.32200000001</v>
       </c>
       <c r="F2">
-        <v>71342.678</v>
+        <v>68617.336</v>
       </c>
       <c r="G2">
+        <v>2725.342</v>
+      </c>
+      <c r="H2">
         <v>130591</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>51514.022</v>
       </c>
       <c r="F3">
-        <v>70363.978</v>
+        <v>68609.516</v>
       </c>
       <c r="G3">
+        <v>1754.462</v>
+      </c>
+      <c r="H3">
         <v>121878</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>142940.98</v>
       </c>
       <c r="F4">
-        <v>276160.02</v>
+        <v>274397.625</v>
       </c>
       <c r="G4">
+        <v>1762.395</v>
+      </c>
+      <c r="H4">
         <v>419101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>159363.9570000001</v>
+        <v>159363.957</v>
       </c>
       <c r="F5">
-        <v>276239.0429999999</v>
+        <v>274458.66</v>
       </c>
       <c r="G5">
+        <v>1780.383</v>
+      </c>
+      <c r="H5">
         <v>435603</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>157788.057</v>
       </c>
       <c r="F6">
-        <v>276212.943</v>
+        <v>274454.5</v>
       </c>
       <c r="G6">
+        <v>1758.443</v>
+      </c>
+      <c r="H6">
         <v>434001</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>41110.81</v>
@@ -7997,21 +8867,24 @@
         <v>50083.19</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>91194</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>49204.67</v>
@@ -8020,21 +8893,24 @@
         <v>50074.33</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>99279</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>269690.5</v>
@@ -8043,21 +8919,24 @@
         <v>363399.5</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>633090</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>338695.4</v>
@@ -8066,21 +8945,24 @@
         <v>363397.6</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>702093</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>342052.9</v>
@@ -8089,21 +8971,24 @@
         <v>363474.1</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>705527</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>77788.016</v>
@@ -8112,21 +8997,24 @@
         <v>18291.984</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>96080</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>21404.22</v>
@@ -8135,21 +9023,24 @@
         <v>23624.78</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>45029</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>33296.57</v>
@@ -8158,6 +9049,9 @@
         <v>33435.43</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>66732</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch50/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch50/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>74917.41500000001</v>
+        <v>73887.09899999999</v>
       </c>
       <c r="E2">
         <v>79019.58499999999</v>
       </c>
       <c r="F2">
+        <v>1030.316</v>
+      </c>
+      <c r="G2">
         <v>153937</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>614300.794</v>
+        <v>612244.5209999999</v>
       </c>
       <c r="E3">
         <v>4305023.206000001</v>
       </c>
       <c r="F3">
+        <v>2056.273</v>
+      </c>
+      <c r="G3">
         <v>4919324</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>11189572.116</v>
+        <v>10558968.139</v>
       </c>
       <c r="E4">
         <v>11406419.884</v>
       </c>
       <c r="F4">
+        <v>630603.9770000001</v>
+      </c>
+      <c r="G4">
         <v>22595992</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>116515.863</v>
+        <v>115546.232</v>
       </c>
       <c r="E5">
         <v>6733.137000000001</v>
       </c>
       <c r="F5">
+        <v>969.631</v>
+      </c>
+      <c r="G5">
         <v>123249</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>38995.445</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>124210</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1511511.1345</v>
+        <v>1510586.4015</v>
       </c>
       <c r="E7">
         <v>1362487.8655</v>
       </c>
       <c r="F7">
+        <v>924.7329999999999</v>
+      </c>
+      <c r="G7">
         <v>2873999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1757548.35</v>
+        <v>1494703.791</v>
       </c>
       <c r="E8">
         <v>6569789.65</v>
       </c>
       <c r="F8">
+        <v>262844.559</v>
+      </c>
+      <c r="G8">
         <v>8327338</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>580636.363</v>
+        <v>570855.3380000001</v>
       </c>
       <c r="E9">
         <v>960537.637</v>
       </c>
       <c r="F9">
+        <v>9781.025</v>
+      </c>
+      <c r="G9">
         <v>1541174</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>1265780.914</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2439024</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>5787047.391000001</v>
+        <v>5271348.356</v>
       </c>
       <c r="E11">
         <v>9296415.608999999</v>
       </c>
       <c r="F11">
+        <v>515699.035</v>
+      </c>
+      <c r="G11">
         <v>15083463</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4271371.262999999</v>
+        <v>3641028.1305</v>
       </c>
       <c r="E12">
         <v>3382329.737</v>
       </c>
       <c r="F12">
+        <v>630343.1324999999</v>
+      </c>
+      <c r="G12">
         <v>7653701</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>8261171.185999999</v>
+        <v>7000474.456999999</v>
       </c>
       <c r="E13">
         <v>6768078.814000001</v>
       </c>
       <c r="F13">
+        <v>1260696.729</v>
+      </c>
+      <c r="G13">
         <v>15029250</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1222.7</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>309032</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>335855.5615</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1532985</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>3099892.885</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>3151276</v>
       </c>
     </row>
